--- a/ExcelFiles/thermoComponents.xlsx
+++ b/ExcelFiles/thermoComponents.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>Marca comercial</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Kioto Solar</t>
+  </si>
+  <si>
+    <t>Precios</t>
   </si>
 </sst>
 </file>
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +772,7 @@
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -796,8 +802,11 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,8 +819,11 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,8 +836,11 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -838,8 +853,11 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -852,8 +870,11 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -866,8 +887,11 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -880,8 +904,11 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -894,8 +921,11 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -908,8 +938,11 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -922,8 +955,11 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -936,8 +972,11 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -950,8 +989,11 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -964,8 +1006,11 @@
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -978,8 +1023,11 @@
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -992,8 +1040,11 @@
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1006,8 +1057,11 @@
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
@@ -1020,8 +1074,11 @@
       <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1034,8 +1091,11 @@
       <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1048,8 +1108,11 @@
       <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1062,8 +1125,11 @@
       <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1073,8 +1139,11 @@
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1084,8 +1153,11 @@
       <c r="D23" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1095,8 +1167,11 @@
       <c r="D24" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1106,8 +1181,11 @@
       <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1117,8 +1195,11 @@
       <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -1131,8 +1212,11 @@
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -1145,8 +1229,11 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -1159,8 +1246,11 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -1173,8 +1263,11 @@
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -1187,8 +1280,11 @@
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -1201,8 +1297,11 @@
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -1215,8 +1314,11 @@
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
@@ -1229,8 +1331,11 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
@@ -1243,8 +1348,11 @@
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -1257,8 +1365,11 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1271,8 +1382,11 @@
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1285,8 +1399,11 @@
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
@@ -1299,8 +1416,11 @@
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -1313,8 +1433,11 @@
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -1324,8 +1447,11 @@
       <c r="D41" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
@@ -1335,8 +1461,11 @@
       <c r="D42" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -1346,8 +1475,11 @@
       <c r="D43" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1357,8 +1489,11 @@
       <c r="D44" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
@@ -1368,8 +1503,11 @@
       <c r="D45" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -1379,8 +1517,11 @@
       <c r="D46" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -1390,8 +1531,11 @@
       <c r="D47" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
@@ -1401,8 +1545,11 @@
       <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -1412,8 +1559,11 @@
       <c r="D49" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -1423,8 +1573,11 @@
       <c r="D50" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -1434,8 +1587,11 @@
       <c r="D51" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -1445,8 +1601,11 @@
       <c r="D52" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>64</v>
       </c>
@@ -1457,8 +1616,11 @@
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>66</v>
       </c>
@@ -1471,8 +1633,11 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>67</v>
       </c>
@@ -1485,8 +1650,11 @@
       <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>68</v>
       </c>
@@ -1499,8 +1667,11 @@
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>69</v>
       </c>
@@ -1511,8 +1682,11 @@
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>70</v>
       </c>
@@ -1525,8 +1699,11 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>71</v>
       </c>
@@ -1537,8 +1714,11 @@
       <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>72</v>
       </c>
@@ -1549,8 +1729,11 @@
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>73</v>
       </c>
@@ -1561,8 +1744,11 @@
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>73</v>
       </c>
@@ -1573,8 +1759,11 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
@@ -1585,8 +1774,11 @@
       <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>75</v>
       </c>
@@ -1597,8 +1789,11 @@
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>75</v>
       </c>
@@ -1609,8 +1804,11 @@
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>76</v>
       </c>
@@ -1621,8 +1819,11 @@
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>77</v>
       </c>
@@ -1633,8 +1834,11 @@
       <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -1645,8 +1849,11 @@
       <c r="D68" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
@@ -1657,8 +1864,11 @@
       <c r="D69" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
@@ -1669,8 +1879,11 @@
       <c r="D70" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>79</v>
       </c>
@@ -1681,8 +1894,11 @@
       <c r="D71" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>79</v>
       </c>
@@ -1693,8 +1909,11 @@
       <c r="D72" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>79</v>
       </c>
@@ -1705,8 +1924,11 @@
       <c r="D73" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>85</v>
       </c>
@@ -1717,8 +1939,11 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>87</v>
       </c>
@@ -1729,8 +1954,11 @@
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>88</v>
       </c>
@@ -1741,8 +1969,11 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>89</v>
       </c>
@@ -1753,8 +1984,11 @@
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>90</v>
       </c>
@@ -1765,8 +1999,11 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>88</v>
       </c>
@@ -1776,6 +2013,9 @@
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
